--- a/biology/Médecine/Sofie_Merckx/Sofie_Merckx.xlsx
+++ b/biology/Médecine/Sofie_Merckx/Sofie_Merckx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sofie Merckx, née le 14 novembre 1974 à Wilrijk, est une femme politique belge, membre du Parti du travail de Belgique (PTB). Elle est députée fédérale depuis 2019 et cheffe du groupe PTB à la Chambre des représentants de Belgique depuis 2022.
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sofie Merckx a grandi à Anvers. Elle a suivi des études de médecine et s'est installée à Charleroi à la suite du stage qu'elle y a mené. Elle a rejoint le PTB dans les années 1990, dont son père, Kris Merckx, était également membre (il était le premier médecin des Médecines pour le peuple organisées par le parti).
-Aux élections communales de 2012, elle est élue conseillère communale à Charleroi ; elle est réélue en 2018[1].
-Aux élections législatives fédérales de 2019, elle est élue députée à la Chambre des représentants. Elle s'occupe des questions de santé au sein du groupe PTB[2].
-Le 19 janvier 2022, elle succède à Raoul Hedebouw comme cheffe de groupe PTB à la Chambre[3].
+Aux élections communales de 2012, elle est élue conseillère communale à Charleroi ; elle est réélue en 2018.
+Aux élections législatives fédérales de 2019, elle est élue députée à la Chambre des représentants. Elle s'occupe des questions de santé au sein du groupe PTB.
+Le 19 janvier 2022, elle succède à Raoul Hedebouw comme cheffe de groupe PTB à la Chambre.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Activités parlementaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 19 mars 2020, Sofie Merckx, de concert avec les groupes PTB, N-VA et Vlaams Belang à la Chambre des représentants, a voté contre la confiance au gouvernement Wilmès II[4],[5].
-Le 25 mars 2020, elle demande la création d'une commission d'enquête parlementaire au sujet du manque de protections pour le personnel médical lors de la crise de coronavirus[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 19 mars 2020, Sofie Merckx, de concert avec les groupes PTB, N-VA et Vlaams Belang à la Chambre des représentants, a voté contre la confiance au gouvernement Wilmès II,.
+Le 25 mars 2020, elle demande la création d'une commission d'enquête parlementaire au sujet du manque de protections pour le personnel médical lors de la crise de coronavirus,.
 </t>
         </is>
       </c>
